--- a/medicine/Maladie à coronavirus 2019/Variant_Thêta_du_SARS-CoV-2/Variant_Thêta_du_SARS-CoV-2.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Variant_Thêta_du_SARS-CoV-2/Variant_Thêta_du_SARS-CoV-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Variant_Th%C3%AAta_du_SARS-CoV-2</t>
+          <t>Variant_Thêta_du_SARS-CoV-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le variant thêta, également connu sous le nom de lignée P.3, est l'un des variants du SARS-CoV-2, le virus qui cause la COVID-19. Le variant a été identifié pour la première fois aux Philippines le 18 février 2021, lorsque deux mutations préoccupantes ont été détectées dans les Visayas centrales[1]. Il a été détecté au Japon le 12 mars 2021, lorsqu'un voyageur philippin est arrivé à l'aéroport international de Narita à Tokyo[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le variant thêta, également connu sous le nom de lignée P.3, est l'un des variants du SARS-CoV-2, le virus qui cause la COVID-19. Le variant a été identifié pour la première fois aux Philippines le 18 février 2021, lorsque deux mutations préoccupantes ont été détectées dans les Visayas centrales. Il a été détecté au Japon le 12 mars 2021, lorsqu'un voyageur philippin est arrivé à l'aéroport international de Narita à Tokyo.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Variant_Th%C3%AAta_du_SARS-CoV-2</t>
+          <t>Variant_Thêta_du_SARS-CoV-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre du schéma de dénomination simplifié proposé par l'Organisation mondiale de la santé, P.3 a été étiqueté variant Thêta, et est considéré comme un variant d'intérêt (VOI), mais pas comme un variant préoccupant[3].
-Depuis juillet 2021, Thêta n'est plus considéré comme un variant d'intérêt par l'OMS[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre du schéma de dénomination simplifié proposé par l'Organisation mondiale de la santé, P.3 a été étiqueté variant Thêta, et est considéré comme un variant d'intérêt (VOI), mais pas comme un variant préoccupant.
+Depuis juillet 2021, Thêta n'est plus considéré comme un variant d'intérêt par l'OMS.
 </t>
         </is>
       </c>
